--- a/config_6.15/game_module_config_cjj.xlsx
+++ b/config_6.15/game_module_config_cjj.xlsx
@@ -11,14 +11,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$337</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="987">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3142,9 +3142,6 @@
     <t>Act_ty_HLQJDManager</t>
   </si>
   <si>
-    <t>5月17日23:59:59</t>
-  </si>
-  <si>
     <t>act_030_hd_zjm</t>
   </si>
   <si>
@@ -3571,7 +3568,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_019</t>
+    <t>sys_act_base_style/sys_act_base_weekly_020</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3710,9 +3707,6 @@
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
-  </si>
-  <si>
-    <t>2021年5月30日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3788,12 +3782,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3839,6 +3833,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -3881,7 +3882,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3889,6 +3914,43 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3909,16 +3971,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3932,38 +3987,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3979,46 +4005,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4098,7 +4099,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4110,25 +4129,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,7 +4171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4158,43 +4189,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4212,25 +4225,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4242,25 +4261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4295,21 +4296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4322,49 +4308,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4386,9 +4346,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4400,10 +4401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4412,139 +4413,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4650,6 +4651,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4659,10 +4663,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4680,7 +4684,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4689,28 +4693,31 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5046,11 +5053,11 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B340" sqref="B340"/>
+      <selection pane="bottomRight" activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12031,46 +12038,46 @@
       <c r="B275" s="31" t="s">
         <v>793</v>
       </c>
-      <c r="C275" s="31" t="s">
+      <c r="C275" s="35" t="s">
         <v>794</v>
       </c>
       <c r="D275" s="32" t="s">
         <v>795</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
-      </c>
-      <c r="I275" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I275" s="51">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A276" s="36">
+        <v>275</v>
+      </c>
+      <c r="B276" s="37" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A276" s="35">
-        <v>275</v>
-      </c>
-      <c r="B276" s="36" t="s">
+      <c r="C276" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="E276" s="6">
+        <v>1</v>
+      </c>
+      <c r="F276" s="6">
+        <v>1</v>
+      </c>
+      <c r="G276" s="6">
+        <v>1</v>
+      </c>
+      <c r="I276" s="37" t="s">
         <v>798</v>
-      </c>
-      <c r="E276" s="6">
-        <v>1</v>
-      </c>
-      <c r="F276" s="6">
-        <v>1</v>
-      </c>
-      <c r="G276" s="6">
-        <v>1</v>
-      </c>
-      <c r="I276" s="36" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -12078,13 +12085,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="C277" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="C277" s="31" t="s">
+      <c r="D277" s="32" t="s">
         <v>801</v>
-      </c>
-      <c r="D277" s="32" t="s">
-        <v>802</v>
       </c>
       <c r="E277" s="5">
         <v>0</v>
@@ -12104,13 +12111,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="C278" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="C278" s="31" t="s">
+      <c r="D278" s="32" t="s">
         <v>804</v>
-      </c>
-      <c r="D278" s="32" t="s">
-        <v>805</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12130,10 +12137,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="C279" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="C279" s="31" t="s">
-        <v>807</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -12153,13 +12160,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="C280" s="31" t="s">
         <v>808</v>
       </c>
-      <c r="C280" s="31" t="s">
+      <c r="D280" s="32" t="s">
         <v>809</v>
-      </c>
-      <c r="D280" s="32" t="s">
-        <v>810</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12179,13 +12186,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="C281" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="C281" s="31" t="s">
+      <c r="D281" s="32" t="s">
         <v>812</v>
-      </c>
-      <c r="D281" s="32" t="s">
-        <v>813</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12205,13 +12212,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="C282" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="C282" s="31" t="s">
+      <c r="D282" s="32" t="s">
         <v>815</v>
-      </c>
-      <c r="D282" s="32" t="s">
-        <v>816</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12230,14 +12237,14 @@
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="37" t="s">
+      <c r="B283" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="C283" s="31" t="s">
         <v>817</v>
       </c>
-      <c r="C283" s="31" t="s">
+      <c r="D283" s="32" t="s">
         <v>818</v>
-      </c>
-      <c r="D283" s="32" t="s">
-        <v>819</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -12256,14 +12263,14 @@
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="38" t="s">
+      <c r="B284" s="39" t="s">
+        <v>819</v>
+      </c>
+      <c r="C284" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="D284" s="39" t="s">
         <v>821</v>
-      </c>
-      <c r="D284" s="38" t="s">
-        <v>822</v>
       </c>
       <c r="E284" s="7">
         <v>1</v>
@@ -12283,13 +12290,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C285" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="D285" s="39" t="s">
         <v>824</v>
-      </c>
-      <c r="D285" s="38" t="s">
-        <v>825</v>
       </c>
       <c r="E285" s="7">
         <v>1</v>
@@ -12309,13 +12316,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="D286" s="39" t="s">
         <v>827</v>
-      </c>
-      <c r="D286" s="38" t="s">
-        <v>828</v>
       </c>
       <c r="E286" s="7">
         <v>1</v>
@@ -12335,13 +12342,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C287" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="D287" s="40" t="s">
         <v>830</v>
-      </c>
-      <c r="D287" s="39" t="s">
-        <v>831</v>
       </c>
       <c r="E287" s="8">
         <v>0</v>
@@ -12357,28 +12364,28 @@
       </c>
     </row>
     <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A288" s="35">
+      <c r="A288" s="36">
         <v>287</v>
       </c>
-      <c r="B288" s="36" t="s">
+      <c r="B288" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="C288" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="D288" s="37" t="s">
         <v>833</v>
       </c>
-      <c r="D288" s="36" t="s">
-        <v>834</v>
-      </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
-      </c>
-      <c r="I288" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I288" s="37" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12387,13 +12394,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="C289" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="C289" s="31" t="s">
+      <c r="D289" s="32" t="s">
         <v>836</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>837</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -12413,13 +12420,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="C290" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C290" s="9" t="s">
+      <c r="D290" s="9" t="s">
         <v>839</v>
-      </c>
-      <c r="D290" s="9" t="s">
-        <v>840</v>
       </c>
       <c r="E290" s="9">
         <v>1</v>
@@ -12439,13 +12446,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C291" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="C291" s="9" t="s">
+      <c r="D291" s="9" t="s">
         <v>842</v>
-      </c>
-      <c r="D291" s="9" t="s">
-        <v>843</v>
       </c>
       <c r="E291" s="9">
         <v>1</v>
@@ -12464,14 +12471,14 @@
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="37" t="s">
+      <c r="B292" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="C292" s="31" t="s">
         <v>844</v>
       </c>
-      <c r="C292" s="31" t="s">
+      <c r="D292" s="38" t="s">
         <v>845</v>
-      </c>
-      <c r="D292" s="37" t="s">
-        <v>846</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12490,14 +12497,14 @@
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="37" t="s">
+      <c r="B293" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="C293" s="31" t="s">
         <v>847</v>
       </c>
-      <c r="C293" s="31" t="s">
+      <c r="D293" s="38" t="s">
         <v>848</v>
-      </c>
-      <c r="D293" s="37" t="s">
-        <v>849</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12517,13 +12524,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="C294" s="31" t="s">
         <v>850</v>
       </c>
-      <c r="C294" s="31" t="s">
+      <c r="D294" s="32" t="s">
         <v>851</v>
-      </c>
-      <c r="D294" s="32" t="s">
-        <v>852</v>
       </c>
       <c r="E294" s="5">
         <v>0</v>
@@ -12544,13 +12551,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C295" s="31" t="s">
         <v>853</v>
       </c>
-      <c r="C295" s="31" t="s">
+      <c r="D295" s="32" t="s">
         <v>854</v>
-      </c>
-      <c r="D295" s="32" t="s">
-        <v>855</v>
       </c>
       <c r="E295" s="5">
         <v>0</v>
@@ -12563,7 +12570,7 @@
       </c>
       <c r="H295" s="5"/>
       <c r="I295" s="31" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J295" s="5"/>
       <c r="K295" s="5"/>
@@ -12598,13 +12605,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="C296" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="C296" s="31" t="s">
+      <c r="D296" s="32" t="s">
         <v>858</v>
-      </c>
-      <c r="D296" s="32" t="s">
-        <v>859</v>
       </c>
       <c r="E296" s="5">
         <v>0</v>
@@ -12617,7 +12624,7 @@
       </c>
       <c r="H296" s="5"/>
       <c r="I296" s="31" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J296" s="5"/>
       <c r="K296" s="5"/>
@@ -12652,13 +12659,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="C297" s="31" t="s">
         <v>860</v>
       </c>
-      <c r="C297" s="31" t="s">
+      <c r="D297" s="32" t="s">
         <v>861</v>
-      </c>
-      <c r="D297" s="32" t="s">
-        <v>862</v>
       </c>
       <c r="E297" s="5">
         <v>0</v>
@@ -12671,7 +12678,7 @@
       </c>
       <c r="H297" s="5"/>
       <c r="I297" s="31" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J297" s="5"/>
       <c r="K297" s="5"/>
@@ -12705,15 +12712,15 @@
       <c r="A298" s="15">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="41" t="s">
+        <v>862</v>
+      </c>
+      <c r="C298" s="42" t="s">
         <v>863</v>
       </c>
-      <c r="C298" s="41" t="s">
+      <c r="D298" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="D298" s="40" t="s">
-        <v>865</v>
-      </c>
       <c r="E298" s="9">
         <v>1</v>
       </c>
@@ -12724,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="9"/>
-      <c r="I298" s="41" t="s">
+      <c r="I298" s="42" t="s">
         <v>12</v>
       </c>
       <c r="J298" s="5"/>
@@ -12759,27 +12766,27 @@
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="42" t="s">
+      <c r="B299" s="43" t="s">
+        <v>865</v>
+      </c>
+      <c r="C299" s="44" t="s">
         <v>866</v>
       </c>
-      <c r="C299" s="43" t="s">
+      <c r="D299" s="43" t="s">
         <v>867</v>
       </c>
-      <c r="D299" s="42" t="s">
+      <c r="E299" s="45">
+        <v>1</v>
+      </c>
+      <c r="F299" s="45">
+        <v>1</v>
+      </c>
+      <c r="G299" s="45">
+        <v>1</v>
+      </c>
+      <c r="H299" s="45"/>
+      <c r="I299" s="44" t="s">
         <v>868</v>
-      </c>
-      <c r="E299" s="44">
-        <v>1</v>
-      </c>
-      <c r="F299" s="44">
-        <v>1</v>
-      </c>
-      <c r="G299" s="44">
-        <v>1</v>
-      </c>
-      <c r="H299" s="44"/>
-      <c r="I299" s="43" t="s">
-        <v>869</v>
       </c>
       <c r="J299" s="5"/>
       <c r="K299" s="5"/>
@@ -12813,53 +12820,53 @@
       <c r="A300" s="15">
         <v>299</v>
       </c>
-      <c r="B300" s="42" t="s">
+      <c r="B300" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="C300" s="44" t="s">
         <v>870</v>
       </c>
-      <c r="C300" s="43" t="s">
+      <c r="D300" s="43" t="s">
         <v>871</v>
       </c>
-      <c r="D300" s="42" t="s">
-        <v>872</v>
-      </c>
-      <c r="E300" s="44">
-        <v>1</v>
-      </c>
-      <c r="F300" s="44">
-        <v>1</v>
-      </c>
-      <c r="G300" s="44">
-        <v>1</v>
-      </c>
-      <c r="H300" s="44"/>
-      <c r="I300" s="43" t="s">
-        <v>869</v>
+      <c r="E300" s="45">
+        <v>1</v>
+      </c>
+      <c r="F300" s="45">
+        <v>1</v>
+      </c>
+      <c r="G300" s="45">
+        <v>1</v>
+      </c>
+      <c r="H300" s="45"/>
+      <c r="I300" s="44" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A301" s="15">
         <v>300</v>
       </c>
-      <c r="B301" s="42" t="s">
+      <c r="B301" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="C301" s="43" t="s">
         <v>873</v>
       </c>
-      <c r="C301" s="42" t="s">
+      <c r="D301" s="43" t="s">
         <v>874</v>
       </c>
-      <c r="D301" s="42" t="s">
-        <v>875</v>
-      </c>
-      <c r="E301" s="44">
-        <v>1</v>
-      </c>
-      <c r="F301" s="44">
-        <v>1</v>
-      </c>
-      <c r="G301" s="44">
-        <v>1</v>
-      </c>
-      <c r="H301" s="44"/>
-      <c r="I301" s="43" t="s">
+      <c r="E301" s="45">
+        <v>1</v>
+      </c>
+      <c r="F301" s="45">
+        <v>1</v>
+      </c>
+      <c r="G301" s="45">
+        <v>1</v>
+      </c>
+      <c r="H301" s="45"/>
+      <c r="I301" s="44" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12868,13 +12875,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C302" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="C302" s="5" t="s">
+      <c r="D302" s="5" t="s">
         <v>877</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="E302" s="5">
         <v>1</v>
@@ -12895,13 +12902,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="C303" s="31" t="s">
         <v>879</v>
       </c>
-      <c r="C303" s="31" t="s">
+      <c r="D303" s="32" t="s">
         <v>880</v>
-      </c>
-      <c r="D303" s="32" t="s">
-        <v>881</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -12914,22 +12921,22 @@
       </c>
       <c r="H303" s="5"/>
       <c r="I303" s="31" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="304" ht="16.5" spans="1:9">
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="40" t="s">
+      <c r="B304" s="41" t="s">
+        <v>882</v>
+      </c>
+      <c r="C304" s="42" t="s">
         <v>883</v>
       </c>
-      <c r="C304" s="41" t="s">
+      <c r="D304" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="D304" s="40" t="s">
-        <v>885</v>
-      </c>
       <c r="E304" s="9">
         <v>1</v>
       </c>
@@ -12940,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="9"/>
-      <c r="I304" s="41" t="s">
+      <c r="I304" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12949,14 +12956,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="32" t="s">
+        <v>885</v>
+      </c>
+      <c r="C305" s="31" t="s">
         <v>886</v>
       </c>
-      <c r="C305" s="31" t="s">
+      <c r="D305" s="32" t="s">
         <v>887</v>
       </c>
-      <c r="D305" s="32" t="s">
-        <v>888</v>
-      </c>
       <c r="E305" s="5">
         <v>1</v>
       </c>
@@ -12967,7 +12974,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -12975,14 +12982,14 @@
         <v>305</v>
       </c>
       <c r="B306" s="32" t="s">
+        <v>888</v>
+      </c>
+      <c r="C306" s="31" t="s">
         <v>889</v>
       </c>
-      <c r="C306" s="31" t="s">
+      <c r="D306" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="D306" s="32" t="s">
-        <v>891</v>
-      </c>
       <c r="E306" s="5">
         <v>0</v>
       </c>
@@ -12993,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="I306" s="31" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="307" ht="16.5" spans="1:7">
@@ -13001,13 +13008,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="32" t="s">
+        <v>891</v>
+      </c>
+      <c r="C307" s="31" t="s">
         <v>892</v>
       </c>
-      <c r="C307" s="31" t="s">
+      <c r="D307" s="32" t="s">
         <v>893</v>
-      </c>
-      <c r="D307" s="32" t="s">
-        <v>894</v>
       </c>
       <c r="E307" s="5">
         <v>1</v>
@@ -13023,40 +13030,40 @@
       <c r="A308" s="15">
         <v>307</v>
       </c>
-      <c r="B308" s="45" t="s">
+      <c r="B308" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="C308" s="31" t="s">
         <v>895</v>
       </c>
-      <c r="C308" s="31" t="s">
+      <c r="D308" s="32" t="s">
         <v>896</v>
       </c>
-      <c r="D308" s="32" t="s">
+      <c r="E308" s="5">
+        <v>0</v>
+      </c>
+      <c r="F308" s="5">
+        <v>0</v>
+      </c>
+      <c r="G308" s="5">
+        <v>0</v>
+      </c>
+      <c r="I308" s="31" t="s">
         <v>897</v>
-      </c>
-      <c r="E308" s="5">
-        <v>0</v>
-      </c>
-      <c r="F308" s="5">
-        <v>0</v>
-      </c>
-      <c r="G308" s="5">
-        <v>0</v>
-      </c>
-      <c r="I308" s="31" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="45" t="s">
+      <c r="B309" s="46" t="s">
+        <v>898</v>
+      </c>
+      <c r="C309" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C309" s="31" t="s">
+      <c r="D309" s="46" t="s">
         <v>900</v>
-      </c>
-      <c r="D309" s="45" t="s">
-        <v>901</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -13076,109 +13083,109 @@
         <v>309</v>
       </c>
       <c r="B310" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="C310" s="31" t="s">
         <v>902</v>
       </c>
-      <c r="C310" s="31" t="s">
+      <c r="D310" s="32" t="s">
         <v>903</v>
       </c>
-      <c r="D310" s="32" t="s">
+      <c r="E310" s="5">
+        <v>0</v>
+      </c>
+      <c r="F310" s="5">
+        <v>0</v>
+      </c>
+      <c r="G310" s="5">
+        <v>0</v>
+      </c>
+      <c r="I310" s="31" t="s">
         <v>904</v>
-      </c>
-      <c r="E310" s="5">
-        <v>0</v>
-      </c>
-      <c r="F310" s="5">
-        <v>0</v>
-      </c>
-      <c r="G310" s="5">
-        <v>0</v>
-      </c>
-      <c r="I310" s="31" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="45" t="s">
+      <c r="B311" s="46" t="s">
+        <v>905</v>
+      </c>
+      <c r="C311" s="31" t="s">
         <v>906</v>
       </c>
-      <c r="C311" s="31" t="s">
+      <c r="D311" s="46" t="s">
         <v>907</v>
       </c>
-      <c r="D311" s="45" t="s">
+      <c r="E311" s="5">
+        <v>0</v>
+      </c>
+      <c r="F311" s="5">
+        <v>0</v>
+      </c>
+      <c r="G311" s="5">
+        <v>0</v>
+      </c>
+      <c r="I311" s="31" t="s">
         <v>908</v>
-      </c>
-      <c r="E311" s="5">
-        <v>0</v>
-      </c>
-      <c r="F311" s="5">
-        <v>0</v>
-      </c>
-      <c r="G311" s="5">
-        <v>0</v>
-      </c>
-      <c r="I311" s="31" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A312" s="15">
         <v>311</v>
       </c>
-      <c r="B312" s="46" t="s">
+      <c r="B312" s="47" t="s">
+        <v>909</v>
+      </c>
+      <c r="C312" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="C312" s="36" t="s">
+      <c r="E312" s="6">
+        <v>0</v>
+      </c>
+      <c r="F312" s="6">
+        <v>0</v>
+      </c>
+      <c r="G312" s="6">
+        <v>0</v>
+      </c>
+      <c r="I312" s="37" t="s">
         <v>911</v>
-      </c>
-      <c r="E312" s="6">
-        <v>0</v>
-      </c>
-      <c r="F312" s="6">
-        <v>0</v>
-      </c>
-      <c r="G312" s="6">
-        <v>0</v>
-      </c>
-      <c r="I312" s="36" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="47" t="s">
+        <v>912</v>
+      </c>
+      <c r="C313" s="37" t="s">
         <v>913</v>
       </c>
-      <c r="C313" s="36" t="s">
+      <c r="E313" s="6">
+        <v>0</v>
+      </c>
+      <c r="F313" s="6">
+        <v>0</v>
+      </c>
+      <c r="G313" s="6">
+        <v>0</v>
+      </c>
+      <c r="I313" s="37" t="s">
         <v>914</v>
-      </c>
-      <c r="E313" s="6">
-        <v>0</v>
-      </c>
-      <c r="F313" s="6">
-        <v>0</v>
-      </c>
-      <c r="G313" s="6">
-        <v>0</v>
-      </c>
-      <c r="I313" s="36" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="47" t="s">
+        <v>915</v>
+      </c>
+      <c r="C314" s="37" t="s">
         <v>916</v>
       </c>
-      <c r="C314" s="36" t="s">
-        <v>917</v>
-      </c>
       <c r="E314" s="6">
         <v>0</v>
       </c>
@@ -13188,20 +13195,20 @@
       <c r="G314" s="6">
         <v>0</v>
       </c>
-      <c r="I314" s="36" t="s">
-        <v>912</v>
+      <c r="I314" s="37" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="47" t="s">
+      <c r="B315" s="48" t="s">
+        <v>917</v>
+      </c>
+      <c r="C315" s="37" t="s">
         <v>918</v>
       </c>
-      <c r="C315" s="36" t="s">
-        <v>919</v>
-      </c>
       <c r="E315" s="6">
         <v>1</v>
       </c>
@@ -13211,7 +13218,7 @@
       <c r="G315" s="6">
         <v>1</v>
       </c>
-      <c r="I315" s="36" t="s">
+      <c r="I315" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13219,12 +13226,12 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="48" t="s">
+      <c r="B316" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="C316" s="37" t="s">
         <v>920</v>
       </c>
-      <c r="C316" s="36" t="s">
-        <v>921</v>
-      </c>
       <c r="E316" s="6">
         <v>1</v>
       </c>
@@ -13234,7 +13241,7 @@
       <c r="G316" s="6">
         <v>1</v>
       </c>
-      <c r="I316" s="36" t="s">
+      <c r="I316" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13242,37 +13249,37 @@
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="46" t="s">
+      <c r="B317" s="47" t="s">
+        <v>921</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="C317" s="36" t="s">
+      <c r="D317" s="47" t="s">
         <v>923</v>
       </c>
-      <c r="D317" s="46" t="s">
+      <c r="E317" s="6">
+        <v>1</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="I317" s="37" t="s">
         <v>924</v>
-      </c>
-      <c r="E317" s="6">
-        <v>1</v>
-      </c>
-      <c r="F317" s="6">
-        <v>1</v>
-      </c>
-      <c r="G317" s="6">
-        <v>1</v>
-      </c>
-      <c r="I317" s="36" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="49" t="s">
+      <c r="B318" s="50" t="s">
+        <v>925</v>
+      </c>
+      <c r="C318" s="31" t="s">
         <v>926</v>
-      </c>
-      <c r="C318" s="31" t="s">
-        <v>927</v>
       </c>
       <c r="D318" s="32"/>
       <c r="E318" s="5">
@@ -13285,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="31" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13293,25 +13300,25 @@
         <v>318</v>
       </c>
       <c r="B319" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="C319" s="31" t="s">
         <v>928</v>
       </c>
-      <c r="C319" s="31" t="s">
+      <c r="D319" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="D319" s="32" t="s">
+      <c r="E319" s="5">
+        <v>0</v>
+      </c>
+      <c r="F319" s="5">
+        <v>0</v>
+      </c>
+      <c r="G319" s="5">
+        <v>0</v>
+      </c>
+      <c r="I319" s="31" t="s">
         <v>930</v>
-      </c>
-      <c r="E319" s="5">
-        <v>0</v>
-      </c>
-      <c r="F319" s="5">
-        <v>0</v>
-      </c>
-      <c r="G319" s="5">
-        <v>0</v>
-      </c>
-      <c r="I319" s="31" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13319,11 +13326,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="C320" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="C320" s="31" t="s">
-        <v>933</v>
-      </c>
       <c r="E320" s="5">
         <v>0</v>
       </c>
@@ -13334,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="I320" s="31" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13342,28 +13349,28 @@
         <v>320</v>
       </c>
       <c r="B321" s="32" t="s">
+        <v>933</v>
+      </c>
+      <c r="C321" s="52" t="s">
         <v>934</v>
       </c>
-      <c r="C321" s="50" t="s">
+      <c r="D321" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="D321" s="32" t="s">
+      <c r="E321" s="5">
+        <v>0</v>
+      </c>
+      <c r="F321" s="5">
+        <v>0</v>
+      </c>
+      <c r="G321" s="5">
+        <v>0</v>
+      </c>
+      <c r="H321" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="E321" s="5">
-        <v>0</v>
-      </c>
-      <c r="F321" s="5">
-        <v>0</v>
-      </c>
-      <c r="G321" s="5">
-        <v>0</v>
-      </c>
-      <c r="H321" s="5" t="s">
-        <v>937</v>
-      </c>
       <c r="I321" s="31" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13371,24 +13378,24 @@
         <v>321</v>
       </c>
       <c r="B322" s="32" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
       <c r="D322" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E322" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F322" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G322" s="5">
-        <v>1</v>
-      </c>
-      <c r="I322" s="56">
+        <v>0</v>
+      </c>
+      <c r="I322" s="58">
         <v>44354</v>
       </c>
     </row>
@@ -13397,13 +13404,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="C323" s="31" t="s">
         <v>940</v>
       </c>
-      <c r="C323" s="31" t="s">
+      <c r="D323" s="32" t="s">
         <v>941</v>
-      </c>
-      <c r="D323" s="32" t="s">
-        <v>942</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -13422,14 +13429,14 @@
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="51" t="s">
+      <c r="B324" s="53" t="s">
+        <v>942</v>
+      </c>
+      <c r="C324" s="31" t="s">
         <v>943</v>
       </c>
-      <c r="C324" s="31" t="s">
+      <c r="D324" t="s">
         <v>944</v>
-      </c>
-      <c r="D324" t="s">
-        <v>945</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -13449,13 +13456,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>945</v>
+      </c>
+      <c r="C325" t="s">
         <v>946</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>947</v>
-      </c>
-      <c r="D325" t="s">
-        <v>948</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -13475,13 +13482,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="C326" t="s">
         <v>949</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="32" t="s">
         <v>950</v>
-      </c>
-      <c r="D326" s="32" t="s">
-        <v>951</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13500,15 +13507,15 @@
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="40" t="s">
+      <c r="B327" s="41" t="s">
+        <v>951</v>
+      </c>
+      <c r="C327" s="42" t="s">
         <v>952</v>
       </c>
-      <c r="C327" s="41" t="s">
+      <c r="D327" s="41" t="s">
         <v>953</v>
       </c>
-      <c r="D327" s="40" t="s">
-        <v>954</v>
-      </c>
       <c r="E327" s="9">
         <v>1</v>
       </c>
@@ -13518,7 +13525,7 @@
       <c r="G327" s="9">
         <v>1</v>
       </c>
-      <c r="I327" s="41" t="s">
+      <c r="I327" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13527,24 +13534,24 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="C328" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="D328" s="18" t="s">
         <v>956</v>
       </c>
-      <c r="D328" s="18" t="s">
-        <v>957</v>
-      </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="I328" s="57">
+        <v>0</v>
+      </c>
+      <c r="I328" s="59">
         <v>44355</v>
       </c>
     </row>
@@ -13552,64 +13559,64 @@
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="51" t="s">
-        <v>958</v>
+      <c r="B329" s="53" t="s">
+        <v>957</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
+        <v>958</v>
+      </c>
+      <c r="E329" s="5">
+        <v>0</v>
+      </c>
+      <c r="F329" s="5">
+        <v>0</v>
+      </c>
+      <c r="G329" s="5">
+        <v>0</v>
+      </c>
+      <c r="I329" s="31" t="s">
         <v>959</v>
-      </c>
-      <c r="E329" s="5">
-        <v>0</v>
-      </c>
-      <c r="F329" s="5">
-        <v>0</v>
-      </c>
-      <c r="G329" s="5">
-        <v>0</v>
-      </c>
-      <c r="I329" s="31" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="330" ht="16.5" spans="1:9">
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="51" t="s">
+      <c r="B330" s="53" t="s">
+        <v>960</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>0</v>
+      </c>
+      <c r="F330" s="5">
+        <v>0</v>
+      </c>
+      <c r="G330" s="5">
+        <v>0</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>962</v>
-      </c>
-      <c r="E330" s="5">
-        <v>0</v>
-      </c>
-      <c r="F330" s="5">
-        <v>0</v>
-      </c>
-      <c r="G330" s="5">
-        <v>0</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="331" ht="16.5" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="51" t="s">
+      <c r="B331" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="D331" s="18" t="s">
-        <v>966</v>
-      </c>
       <c r="E331" s="5">
         <v>1</v>
       </c>
@@ -13619,45 +13626,45 @@
       <c r="G331" s="5">
         <v>1</v>
       </c>
-      <c r="I331" s="31" t="s">
-        <v>967</v>
+      <c r="I331" s="58">
+        <v>44375</v>
       </c>
     </row>
     <row r="332" ht="16.5" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="52" t="s">
+      <c r="B332" s="54" t="s">
+        <v>966</v>
+      </c>
+      <c r="C332" t="s">
+        <v>967</v>
+      </c>
+      <c r="D332" s="55" t="s">
         <v>968</v>
       </c>
-      <c r="C332" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>969</v>
-      </c>
-      <c r="D332" s="53" t="s">
-        <v>970</v>
-      </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="333" ht="16.5" spans="1:9">
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="51" t="s">
-        <v>972</v>
+      <c r="B333" s="53" t="s">
+        <v>970</v>
       </c>
       <c r="C333" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -13668,7 +13675,7 @@
       <c r="G333">
         <v>1</v>
       </c>
-      <c r="I333" s="56">
+      <c r="I333" s="58">
         <v>44354</v>
       </c>
     </row>
@@ -13676,14 +13683,14 @@
       <c r="A334" s="15">
         <v>333</v>
       </c>
-      <c r="B334" s="51" t="s">
+      <c r="B334" s="53" t="s">
+        <v>972</v>
+      </c>
+      <c r="C334" s="56" t="s">
+        <v>973</v>
+      </c>
+      <c r="D334" s="18" t="s">
         <v>974</v>
-      </c>
-      <c r="C334" s="54" t="s">
-        <v>975</v>
-      </c>
-      <c r="D334" s="18" t="s">
-        <v>976</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -13699,41 +13706,41 @@
       <c r="A335" s="5">
         <v>334</v>
       </c>
-      <c r="B335" s="52" t="s">
+      <c r="B335" s="54" t="s">
+        <v>975</v>
+      </c>
+      <c r="C335" t="s">
+        <v>976</v>
+      </c>
+      <c r="D335" s="54" t="s">
         <v>977</v>
       </c>
-      <c r="C335" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>978</v>
-      </c>
-      <c r="D335" s="52" t="s">
-        <v>979</v>
-      </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="31" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="336" ht="15.75" spans="1:9">
       <c r="A336" s="5">
         <v>335</v>
       </c>
-      <c r="B336" s="52" t="s">
+      <c r="B336" s="54" t="s">
+        <v>979</v>
+      </c>
+      <c r="C336" t="s">
+        <v>980</v>
+      </c>
+      <c r="D336" s="54" t="s">
         <v>981</v>
       </c>
-      <c r="C336" t="s">
-        <v>982</v>
-      </c>
-      <c r="D336" s="52" t="s">
-        <v>983</v>
-      </c>
       <c r="E336">
         <v>1</v>
       </c>
@@ -13743,7 +13750,7 @@
       <c r="G336">
         <v>1</v>
       </c>
-      <c r="I336" s="58">
+      <c r="I336" s="60">
         <v>44414</v>
       </c>
     </row>
@@ -13751,30 +13758,30 @@
       <c r="A337" s="5">
         <v>336</v>
       </c>
-      <c r="B337" s="52" t="s">
+      <c r="B337" s="54" t="s">
+        <v>982</v>
+      </c>
+      <c r="C337" t="s">
+        <v>983</v>
+      </c>
+      <c r="D337" s="57" t="s">
         <v>984</v>
       </c>
-      <c r="C337" t="s">
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="I337" t="s">
         <v>985</v>
       </c>
-      <c r="D337" s="55" t="s">
-        <v>986</v>
-      </c>
-      <c r="E337">
-        <v>1</v>
-      </c>
-      <c r="F337">
-        <v>1</v>
-      </c>
-      <c r="G337">
-        <v>1</v>
-      </c>
-      <c r="I337" t="s">
-        <v>987</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H336">
+  <autoFilter ref="A1:H337">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13800,7 +13807,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>
